--- a/img_user/aumza/sampleotu/excel_table_groups_ave_std.xlsx
+++ b/img_user/aumza/sampleotu/excel_table_groups_ave_std.xlsx
@@ -468,31 +468,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>10356</v>
+        <v>10366</v>
       </c>
       <c r="D2">
-        <v>0.474392</v>
+        <v>0.473915</v>
       </c>
       <c r="E2">
-        <v>6386.635</v>
+        <v>6399.007</v>
       </c>
       <c r="F2">
-        <v>37856.280337</v>
+        <v>37796.758411</v>
       </c>
       <c r="G2">
-        <v>34712.348819</v>
+        <v>34667.247831</v>
       </c>
       <c r="H2">
-        <v>41349.193523</v>
+        <v>41272.758894</v>
       </c>
       <c r="I2">
-        <v>8.109152</v>
+        <v>8.110673</v>
       </c>
       <c r="J2">
-        <v>8.076954000000001</v>
+        <v>8.078436999999999</v>
       </c>
       <c r="K2">
-        <v>8.141349999999999</v>
+        <v>8.142908</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,31 +503,31 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10356</v>
+        <v>10366</v>
       </c>
       <c r="D3">
-        <v>0.482812</v>
+        <v>0.482346</v>
       </c>
       <c r="E3">
-        <v>6269</v>
+        <v>6283</v>
       </c>
       <c r="F3">
-        <v>37717.881579</v>
+        <v>37780.363239</v>
       </c>
       <c r="G3">
-        <v>34535.633549</v>
+        <v>34596.371829</v>
       </c>
       <c r="H3">
-        <v>41258.386014</v>
+        <v>41322.41166</v>
       </c>
       <c r="I3">
-        <v>8.057112999999999</v>
+        <v>8.060555000000001</v>
       </c>
       <c r="J3">
-        <v>8.024588</v>
+        <v>8.028047000000001</v>
       </c>
       <c r="K3">
-        <v>8.089637</v>
+        <v>8.093063000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,31 +538,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10356</v>
+        <v>10366</v>
       </c>
       <c r="D4">
-        <v>0.514593</v>
+        <v>0.516926</v>
       </c>
       <c r="E4">
-        <v>5713.169</v>
+        <v>5698.68</v>
       </c>
       <c r="F4">
-        <v>49589.555579</v>
+        <v>48838.719454</v>
       </c>
       <c r="G4">
-        <v>44314.032819</v>
+        <v>43667.713972</v>
       </c>
       <c r="H4">
-        <v>55586.117283</v>
+        <v>54714.006051</v>
       </c>
       <c r="I4">
-        <v>7.672564</v>
+        <v>7.66962</v>
       </c>
       <c r="J4">
-        <v>7.634807</v>
+        <v>7.631936</v>
       </c>
       <c r="K4">
-        <v>7.710321</v>
+        <v>7.707305</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,31 +573,31 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>10356</v>
+        <v>10366</v>
       </c>
       <c r="D5">
-        <v>0.433139</v>
+        <v>0.428772</v>
       </c>
       <c r="E5">
-        <v>6809.481</v>
+        <v>6843.766</v>
       </c>
       <c r="F5">
-        <v>43316.26973</v>
+        <v>44260.493719</v>
       </c>
       <c r="G5">
-        <v>39707.69704</v>
+        <v>40556.401113</v>
       </c>
       <c r="H5">
-        <v>47320.675726</v>
+        <v>48371.576397</v>
       </c>
       <c r="I5">
-        <v>8.300000000000001</v>
+        <v>8.303110999999999</v>
       </c>
       <c r="J5">
-        <v>8.271000000000001</v>
+        <v>8.274035</v>
       </c>
       <c r="K5">
-        <v>8.329000000000001</v>
+        <v>8.332186999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00206</v>
+        <v>0.002283</v>
       </c>
       <c r="E6">
-        <v>16.952633</v>
+        <v>18.130774</v>
       </c>
       <c r="F6">
-        <v>905.59503</v>
+        <v>931.001428</v>
       </c>
       <c r="G6">
-        <v>790.826201</v>
+        <v>814.67009</v>
       </c>
       <c r="H6">
-        <v>1036.316372</v>
+        <v>1063.36023</v>
       </c>
       <c r="I6">
-        <v>0.006813</v>
+        <v>0.006796</v>
       </c>
       <c r="J6">
-        <v>0.006918</v>
+        <v>0.006895</v>
       </c>
       <c r="K6">
-        <v>0.006709</v>
+        <v>0.006698</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000955</v>
+        <v>0.000964</v>
       </c>
       <c r="E8">
-        <v>8.422971</v>
+        <v>8.374342</v>
       </c>
       <c r="F8">
-        <v>853.712412</v>
+        <v>864.060506</v>
       </c>
       <c r="G8">
-        <v>717.174896</v>
+        <v>726.691144</v>
       </c>
       <c r="H8">
-        <v>1014.353815</v>
+        <v>1025.536185</v>
       </c>
       <c r="I8">
-        <v>0.003736</v>
+        <v>0.003815</v>
       </c>
       <c r="J8">
-        <v>0.003772</v>
+        <v>0.003854</v>
       </c>
       <c r="K8">
-        <v>0.003701</v>
+        <v>0.003776</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00119</v>
+        <v>0.001242</v>
       </c>
       <c r="E9">
-        <v>9.51313</v>
+        <v>9.971221</v>
       </c>
       <c r="F9">
-        <v>620.651511</v>
+        <v>624.280245</v>
       </c>
       <c r="G9">
-        <v>542.059783</v>
+        <v>545.526429</v>
       </c>
       <c r="H9">
-        <v>710.078544</v>
+        <v>713.883336</v>
       </c>
       <c r="I9">
-        <v>0.003287</v>
+        <v>0.00354</v>
       </c>
       <c r="J9">
-        <v>0.003336</v>
+        <v>0.003594</v>
       </c>
       <c r="K9">
-        <v>0.003238</v>
+        <v>0.003486</v>
       </c>
     </row>
   </sheetData>

--- a/img_user/aumza/sampleotu/excel_table_groups_ave_std.xlsx
+++ b/img_user/aumza/sampleotu/excel_table_groups_ave_std.xlsx
@@ -468,31 +468,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>10366</v>
+        <v>10375</v>
       </c>
       <c r="D2">
-        <v>0.473915</v>
+        <v>0.474235</v>
       </c>
       <c r="E2">
-        <v>6399.007</v>
+        <v>6398.7</v>
       </c>
       <c r="F2">
-        <v>37796.758411</v>
+        <v>38388.268485</v>
       </c>
       <c r="G2">
-        <v>34667.247831</v>
+        <v>35179.934278</v>
       </c>
       <c r="H2">
-        <v>41272.758894</v>
+        <v>41954.280067</v>
       </c>
       <c r="I2">
-        <v>8.110673</v>
+        <v>8.110571999999999</v>
       </c>
       <c r="J2">
-        <v>8.078436999999999</v>
+        <v>8.078353</v>
       </c>
       <c r="K2">
-        <v>8.142908</v>
+        <v>8.142792</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,31 +503,31 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10366</v>
+        <v>10375</v>
       </c>
       <c r="D3">
-        <v>0.482346</v>
+        <v>0.480578</v>
       </c>
       <c r="E3">
-        <v>6283</v>
+        <v>6299</v>
       </c>
       <c r="F3">
-        <v>37780.363239</v>
+        <v>38418.393805</v>
       </c>
       <c r="G3">
-        <v>34596.371829</v>
+        <v>35161.009197</v>
       </c>
       <c r="H3">
-        <v>41322.41166</v>
+        <v>42043.4089</v>
       </c>
       <c r="I3">
-        <v>8.060555000000001</v>
+        <v>8.06185</v>
       </c>
       <c r="J3">
-        <v>8.028047000000001</v>
+        <v>8.029265000000001</v>
       </c>
       <c r="K3">
-        <v>8.093063000000001</v>
+        <v>8.094434</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,31 +538,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10366</v>
+        <v>10375</v>
       </c>
       <c r="D4">
-        <v>0.516926</v>
+        <v>0.516132</v>
       </c>
       <c r="E4">
-        <v>5698.68</v>
+        <v>5698.158</v>
       </c>
       <c r="F4">
-        <v>48838.719454</v>
+        <v>49927.571697</v>
       </c>
       <c r="G4">
-        <v>43667.713972</v>
+        <v>44587.478093</v>
       </c>
       <c r="H4">
-        <v>54714.006051</v>
+        <v>56000.991821</v>
       </c>
       <c r="I4">
-        <v>7.66962</v>
+        <v>7.659857</v>
       </c>
       <c r="J4">
-        <v>7.631936</v>
+        <v>7.622042</v>
       </c>
       <c r="K4">
-        <v>7.707305</v>
+        <v>7.697672</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,31 +573,31 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>10366</v>
+        <v>10375</v>
       </c>
       <c r="D5">
-        <v>0.428772</v>
+        <v>0.431403</v>
       </c>
       <c r="E5">
-        <v>6843.766</v>
+        <v>6827.185</v>
       </c>
       <c r="F5">
-        <v>44260.493719</v>
+        <v>44556.467535</v>
       </c>
       <c r="G5">
-        <v>40556.401113</v>
+        <v>40798.88984</v>
       </c>
       <c r="H5">
-        <v>48371.576397</v>
+        <v>48729.680055</v>
       </c>
       <c r="I5">
-        <v>8.303110999999999</v>
+        <v>8.303639</v>
       </c>
       <c r="J5">
-        <v>8.274035</v>
+        <v>8.274718</v>
       </c>
       <c r="K5">
-        <v>8.332186999999999</v>
+        <v>8.332560000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002283</v>
+        <v>0.002248</v>
       </c>
       <c r="E6">
-        <v>18.130774</v>
+        <v>18.0848</v>
       </c>
       <c r="F6">
-        <v>931.001428</v>
+        <v>989.366157</v>
       </c>
       <c r="G6">
-        <v>814.67009</v>
+        <v>864.06996</v>
       </c>
       <c r="H6">
-        <v>1063.36023</v>
+        <v>1132.104907</v>
       </c>
       <c r="I6">
-        <v>0.006796</v>
+        <v>0.006818</v>
       </c>
       <c r="J6">
-        <v>0.006895</v>
+        <v>0.006917</v>
       </c>
       <c r="K6">
-        <v>0.006698</v>
+        <v>0.00672</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.000964</v>
+        <v>0.001016</v>
       </c>
       <c r="E8">
-        <v>8.374342</v>
+        <v>8.744771999999999</v>
       </c>
       <c r="F8">
-        <v>864.060506</v>
+        <v>951.9082100000001</v>
       </c>
       <c r="G8">
-        <v>726.691144</v>
+        <v>799.125057</v>
       </c>
       <c r="H8">
-        <v>1025.536185</v>
+        <v>1131.767127</v>
       </c>
       <c r="I8">
-        <v>0.003815</v>
+        <v>0.003974</v>
       </c>
       <c r="J8">
-        <v>0.003854</v>
+        <v>0.004014</v>
       </c>
       <c r="K8">
-        <v>0.003776</v>
+        <v>0.003934</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001242</v>
+        <v>0.001145</v>
       </c>
       <c r="E9">
-        <v>9.971221</v>
+        <v>8.905772000000001</v>
       </c>
       <c r="F9">
-        <v>624.280245</v>
+        <v>635.589436</v>
       </c>
       <c r="G9">
-        <v>545.526429</v>
+        <v>554.5636009999999</v>
       </c>
       <c r="H9">
-        <v>713.883336</v>
+        <v>727.866536</v>
       </c>
       <c r="I9">
-        <v>0.00354</v>
+        <v>0.003109</v>
       </c>
       <c r="J9">
-        <v>0.003594</v>
+        <v>0.003157</v>
       </c>
       <c r="K9">
-        <v>0.003486</v>
+        <v>0.003061</v>
       </c>
     </row>
   </sheetData>
